--- a/inst/extdata/examples/TestProject/Parameters/Scenarios.xlsx
+++ b/inst/extdata/examples/TestProject/Parameters/Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\tests\data\TestProject\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Code\esqlabsR\inst\extdata\examples\TestProject\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDAD20-A459-4B82-8D57-21D53FFF046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE230A-7A26-4A94-9F2F-25D21944155F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2970" windowWidth="12975" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="8" r:id="rId1"/>
@@ -518,27 +518,27 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5859375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5859375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.87890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1171875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5859375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,7 +579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -602,7 +602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -637,12 +637,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -669,12 +669,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -716,13 +716,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.29296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -730,7 +730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -738,7 +738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -753,26 +753,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b3e823de345af38b5a0fa8b2c9729ead">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fae56da9623201e330c5b1623e145d1" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -1009,26 +989,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2633B21-6509-4402-A676-EEE1878D6EA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FCC551-4FF5-46A3-9024-D54BBA18C5A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9A7DEF-8D50-4222-A255-A8C989265833}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1045,4 +1026,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FCC551-4FF5-46A3-9024-D54BBA18C5A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2633B21-6509-4402-A676-EEE1878D6EA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/examples/TestProject/Parameters/Scenarios.xlsx
+++ b/inst/extdata/examples/TestProject/Parameters/Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Code\esqlabsR\inst\extdata\examples\TestProject\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\inst\extdata\examples\TestProject\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE230A-7A26-4A94-9F2F-25D21944155F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63FBE1-467D-4232-9F55-ECF0D3C7D94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2970" windowWidth="12975" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="8" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>SimulationTime</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>0, 12, 20</t>
+  </si>
+  <si>
+    <t>Global, MissingParam</t>
+  </si>
+  <si>
+    <t>TestScenario_missingParam</t>
   </si>
 </sst>
 </file>
@@ -515,30 +521,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A1BACA-04A5-4461-B34D-CB73BA82CEC5}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.15625" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.68359375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,7 +585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -602,7 +608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -637,7 +643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -669,7 +675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -698,6 +704,29 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -716,13 +745,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -730,7 +759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -738,7 +767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -753,6 +782,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b3e823de345af38b5a0fa8b2c9729ead">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fae56da9623201e330c5b1623e145d1" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -989,7 +1029,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -998,18 +1038,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2633B21-6509-4402-A676-EEE1878D6EA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9A7DEF-8D50-4222-A255-A8C989265833}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1028,21 +1068,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FCC551-4FF5-46A3-9024-D54BBA18C5A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2633B21-6509-4402-A676-EEE1878D6EA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>